--- a/public/import_template.xlsx
+++ b/public/import_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveroverts/code/sites/bmac/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hollmann\PhpstormProjects\bmac\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350A604C-C307-1B42-970D-B497DA28A4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C8CBF9-1807-44C4-BEC4-DFCE04712C56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{D04AF5E1-FD0B-423F-91F9-BDC72DF41FA8}"/>
   </bookViews>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Call Sign</t>
   </si>
@@ -57,6 +49,12 @@
   </si>
   <si>
     <t>CTOT</t>
+  </si>
+  <si>
+    <t>EOBT</t>
+  </si>
+  <si>
+    <t>Url</t>
   </si>
 </sst>
 </file>
@@ -106,13 +104,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -128,7 +127,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -424,22 +423,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91403348-4099-4258-BDAA-3E7E76500E16}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,19 +450,25 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
